--- a/7. 软件设计部/资源组长个人PBC-王斌.xlsx
+++ b/7. 软件设计部/资源组长个人PBC-王斌.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\99se\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Code\99se\Hollysys\7. 软件设计部\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="112">
   <si>
     <t>2020年度绩效承诺表（PBC）</t>
   </si>
@@ -253,9 +253,6 @@
     <t>输出《专业组CBB建设计划》，与资源组各责任人明确</t>
   </si>
   <si>
-    <t>3.按月跟进CBB建设计划-2020.12.30</t>
-  </si>
-  <si>
     <t>资源组年度CBB建设目标达成率100%</t>
   </si>
   <si>
@@ -317,10 +314,6 @@
   </si>
   <si>
     <t>3.组织新员工定期答辩及通过试用期答辩 - 2020.12.30</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出知识沉淀文档</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
@@ -466,15 +459,39 @@
     <t>以《试用期上岗考核表》为依据对2020年新入职人员考核，1人为答辩优秀（答辩得分90分以上）或评为年度优秀新人</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
+  <si>
+    <t>达成</t>
+  </si>
+  <si>
+    <t>达成</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.按月跟进CBB建设计划-2020.12.30</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出知识沉淀文档</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成5篇知识沉淀文档</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>成熟态：1个
+试用态：已开发完成2个CBB模块</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -7445,6 +7462,9 @@
     <xf numFmtId="9" fontId="34" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7499,6 +7519,27 @@
     <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7511,31 +7552,16 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7549,15 +7575,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2083">
@@ -9648,6 +9665,72 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FF80C687"/>
       <color rgb="FFCCE8CF"/>
@@ -9674,7 +9757,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -9959,7 +10042,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="3.625" style="4" customWidth="1"/>
@@ -9974,43 +10057,43 @@
     <col min="12" max="252" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B1" s="51" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="41"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="42"/>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F2" s="9"/>
       <c r="H2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="20.25" customHeight="1">
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F3" s="9"/>
       <c r="H3" s="10" t="s">
@@ -10020,46 +10103,46 @@
         <v>5</v>
       </c>
       <c r="J3" s="10"/>
-      <c r="K3" s="41"/>
+      <c r="K3" s="42"/>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" ht="8.25" customHeight="1">
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42" t="s">
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="42" t="s">
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="12" t="s">
         <v>13</v>
       </c>
@@ -10069,15 +10152,15 @@
       <c r="H6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="33.75">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="13" t="s">
         <v>17</v>
       </c>
@@ -10087,11 +10170,11 @@
       <c r="E7" s="15">
         <v>0.5</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
       <c r="I7" s="20" t="s">
         <v>20</v>
       </c>
@@ -10102,14 +10185,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" ht="66">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="47" t="s">
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="48" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="15">
         <v>0.3</v>
@@ -10133,10 +10216,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="16.5">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="48"/>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="16" t="s">
         <v>25</v>
       </c>
@@ -10162,21 +10245,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="16.5">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="49"/>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="18" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="59"/>
       <c r="I10" s="20" t="s">
         <v>34</v>
       </c>
@@ -10187,21 +10270,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" ht="54" customHeight="1">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="49"/>
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="26" t="s">
         <v>37</v>
       </c>
@@ -10212,21 +10295,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="50"/>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="19" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
       <c r="I12" s="26" t="s">
         <v>40</v>
       </c>
@@ -10237,12 +10320,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="32.25" customHeight="1">
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="10"/>
@@ -10253,7 +10336,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" ht="26.25" customHeight="1">
+    <row r="14" spans="1:11" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="3" t="s">
         <v>43</v>
       </c>
@@ -10298,11 +10381,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
@@ -10314,7 +10397,7 @@
     <col min="8" max="8" width="50.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>44</v>
       </c>
@@ -10340,246 +10423,252 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="62">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="70">
         <v>1</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>63</v>
+      <c r="B2" s="70" t="s">
+        <v>62</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="66">
+        <v>59</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="60">
         <v>0.2</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="33"/>
+      <c r="G2" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="67"/>
+        <v>60</v>
+      </c>
+      <c r="D3" s="70"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="34"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="34" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
+    <row r="4" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="35"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="34" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="62">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="70">
         <v>2</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="66">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="32" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="35"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="35" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="1:8" ht="22.5">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
+    <row r="7" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="67"/>
+        <v>98</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="65"/>
+        <v>97</v>
+      </c>
+      <c r="G7" s="66"/>
       <c r="H7" s="35"/>
     </row>
-    <row r="8" spans="1:8" ht="56.25">
-      <c r="A8" s="63">
+    <row r="8" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="73">
         <v>3</v>
       </c>
-      <c r="B8" s="62" t="s">
-        <v>68</v>
+      <c r="B8" s="70" t="s">
+        <v>67</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>89</v>
       </c>
       <c r="E8" s="40">
         <v>0.2</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="67" t="s">
         <v>45</v>
       </c>
       <c r="H8" s="34"/>
     </row>
-    <row r="9" spans="1:8" ht="45">
-      <c r="A9" s="63"/>
-      <c r="B9" s="62"/>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A9" s="73"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="60"/>
+        <v>102</v>
+      </c>
+      <c r="D9" s="68"/>
       <c r="E9" s="40">
         <v>0.1</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="60"/>
+        <v>100</v>
+      </c>
+      <c r="G9" s="68"/>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="74"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="60"/>
+        <v>101</v>
+      </c>
+      <c r="D10" s="68"/>
       <c r="E10" s="40">
         <v>0.1</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="78"/>
+        <v>109</v>
+      </c>
+      <c r="G10" s="68"/>
+      <c r="H10" s="41" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="63"/>
-      <c r="B11" s="62"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="73"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="61"/>
+        <v>103</v>
+      </c>
+      <c r="D11" s="69"/>
       <c r="E11" s="40">
         <v>0.1</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="61"/>
+        <v>104</v>
+      </c>
+      <c r="G11" s="69"/>
       <c r="H11" s="34"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="59">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="67">
         <v>4</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="62">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="69">
-        <v>0.1</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="35"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="68"/>
+      <c r="H13" s="34" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="32" t="s">
+    <row r="14" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="22.5">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="71"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="64"/>
       <c r="F14" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="61"/>
+        <v>105</v>
+      </c>
+      <c r="G14" s="69"/>
       <c r="H14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:G4"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B8:B11"/>
@@ -10589,6 +10678,16 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="G12:G14"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10603,7 +10702,7 @@
       <selection activeCell="D4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.625" customWidth="1"/>
@@ -10611,92 +10710,92 @@
     <col min="5" max="5" width="53.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="D1" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="E1" s="76"/>
+      <c r="F1" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="36" t="s">
-        <v>80</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="82.5">
+    <row r="2" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>84</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>86</v>
       </c>
       <c r="C2" s="38">
         <v>44195</v>
       </c>
-      <c r="D2" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="75"/>
+      <c r="D2" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="78"/>
       <c r="F2" s="39">
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="66">
+    <row r="3" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A3" s="37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="38">
         <v>44195</v>
       </c>
-      <c r="D3" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="75"/>
+      <c r="D3" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="78"/>
       <c r="F3" s="39">
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="66">
+    <row r="4" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A4" s="37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" s="38">
         <v>44195</v>
       </c>
-      <c r="D4" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="75"/>
+      <c r="D4" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="78"/>
       <c r="F4" s="39">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="66">
+    <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="38">
         <v>44195</v>
       </c>
-      <c r="D5" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="75"/>
+      <c r="D5" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="78"/>
       <c r="F5" s="39">
         <v>0.1</v>
       </c>

--- a/7. 软件设计部/资源组长个人PBC-王斌.xlsx
+++ b/7. 软件设计部/资源组长个人PBC-王斌.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="121">
   <si>
     <t>2020年度绩效承诺表（PBC）</t>
   </si>
@@ -460,13 +460,6 @@
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
-    <t>达成</t>
-  </si>
-  <si>
-    <t>达成</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
     <t>3.按月跟进CBB建设计划-2020.12.30</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
@@ -475,12 +468,74 @@
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
-    <t>已完成5篇知识沉淀文档</t>
+    <t>【达成情况】：平台组态资源组CBB目录输出于2020.5.20完成。
+【情况说明】：目录共11个组件，1个工具，其中3个组件（GSD文件解析器、通用工具栏组件、表格组件）已评审通过，3个组件不处理，新增2个组件待审，</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
-    <t>成熟态：1个
-试用态：已开发完成2个CBB模块</t>
+    <t>【达成情况】：平台组态资源组CBB建设计划于于2020.5.21完成。
+【情况说明】：每个CBB建设计划明确到责任人和节点要求，并于组织资源组会议，在会议中宣贯建设管理细则、明确责任人的工作内容以及节点要求（详细信息已登记在《杭和西分CBB履历表》中）</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>【达成情况】：平台组态资源组按月跟进CBB建设计划。
+【情况说明】：CBB最新模板已下发到组内成员</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>【达成情况】：平台组态资源组摸底已于2020.5.22完成
+【情况说明】：输出平台组态资源组的知识地图</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>【达成情况】：平台组态资源组梯队划分已于2020.5.31完成
+【情况说明】：输出平台组态资源组的知识技能地图及梯队划分情况，后经会议讨论逐步完善。</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>【达成情况】：平台组态资源组梯队划分已于2020.5.31完成
+【情况说明】：输出平台组态资源组的培养计划，后经会议讨论逐步完善。</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>【达成情况】：
+1. 已经明确4名第一梯队核心开发人员分别为：王斌、冯勤、曹立言、刘景瑞
+2. 编译器模块现有宋维和王月虎负责，2人相互备份
+3. 明确关键技术点覆盖人员名单：曹立言、刘景瑞、宋维、王斌、冯勤、徐兴平</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【达成情况】：
+1. 宣讲编码规范文档以及部门编码军规
+2. 安排新人编码规范考试
+3. 记录代码走查记录
+</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>【达成情况】：
+1. 输出沉淀文档 20+</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>【达成情况】：
+1. 按计划每月进行应届生的月度答辩
+2. 按计划执行新员工的试用期答辩，并已上岗考核表为依据，目前达到优秀标准的有 4人（曹立言、刘景瑞、刘超、徐兴平）</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>【达成情况】：
+1. 已输出新员工2周内每天需要学习的资料文档，TFS可获取</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>【达成情况】：
+1. 已输出培养方案，包括第一梯队核心人员培养方案和其它扩展人员培养计划，输出文档《平台组态_培养计划_2020》</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>【达成情况】：
+1. 工时产出率和代码产出率均达到90%率以上</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
 </sst>
@@ -7342,16 +7397,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7442,11 +7494,9 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7519,12 +7569,42 @@
     <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="34" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7534,36 +7614,6 @@
     <xf numFmtId="9" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7575,6 +7625,9 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2083">
@@ -9665,72 +9718,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FF80C687"/>
       <color rgb="FFCCE8CF"/>
@@ -9757,7 +9744,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -10044,311 +10031,311 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="6" customWidth="1"/>
-    <col min="6" max="7" width="9.375" style="4"/>
-    <col min="8" max="8" width="8.125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="54.25" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12.125" style="4" customWidth="1"/>
-    <col min="12" max="252" width="9" style="4"/>
+    <col min="1" max="1" width="3.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="5" customWidth="1"/>
+    <col min="6" max="7" width="9.375" style="3"/>
+    <col min="8" max="8" width="8.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="54.25" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="3" customWidth="1"/>
+    <col min="12" max="252" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="52" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="42"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="39"/>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D2" s="7" t="s">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="8"/>
+      <c r="H2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="42"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="39"/>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D3" s="7" t="s">
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="H3" s="10" t="s">
+      <c r="F3" s="8"/>
+      <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="42"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="39"/>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="J4" s="6"/>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43" t="s">
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="43" t="s">
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="12" t="s">
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:11" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>0.5</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="20" t="s">
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="48" t="s">
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>0.3</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="16" t="s">
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>0.2</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="18" t="s">
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="20" t="s">
+      <c r="G10" s="55"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="19" t="s">
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="26" t="s">
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="19" t="s">
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="26" t="s">
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="3" t="s">
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="3" t="s">
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="27" t="s">
         <v>47</v>
       </c>
     </row>
@@ -10382,7 +10369,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10392,283 +10379,303 @@
     <col min="3" max="3" width="58.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.875" customWidth="1"/>
+    <col min="6" max="6" width="48.5" customWidth="1"/>
     <col min="7" max="7" width="27.625" customWidth="1"/>
     <col min="8" max="8" width="50.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="70">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A2" s="60">
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="66">
         <v>0.2</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>107</v>
+      <c r="H2" s="76" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="31" t="s">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="32" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="34" t="s">
-        <v>107</v>
+      <c r="G3" s="60"/>
+      <c r="H3" s="32" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="32" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="34" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="60">
+        <v>2</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="66">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="70">
-        <v>2</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="60">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="31" t="s">
+    <row r="6" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="32" t="s">
+      <c r="D6" s="65"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="35" t="s">
-        <v>107</v>
+      <c r="G6" s="65"/>
+      <c r="H6" s="32" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="31" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="32" t="s">
+      <c r="D7" s="65"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="35"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="32" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="73">
+    <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="62">
         <v>3</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="37">
         <v>0.2</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="34"/>
+      <c r="H8" s="32" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.15">
-      <c r="A9" s="73"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="31" t="s">
+    <row r="9" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="62"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="40">
+      <c r="D9" s="58"/>
+      <c r="E9" s="37">
         <v>0.1</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="34"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="32" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="31" t="s">
+    <row r="10" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="63"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="40">
+      <c r="D10" s="58"/>
+      <c r="E10" s="37">
         <v>0.1</v>
       </c>
-      <c r="F10" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="41" t="s">
-        <v>110</v>
+      <c r="F10" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="58"/>
+      <c r="H10" s="38" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="73"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="31" t="s">
+    <row r="11" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="62"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="40">
+      <c r="D11" s="59"/>
+      <c r="E11" s="37">
         <v>0.1</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="34"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="32" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="67">
+    <row r="12" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A12" s="57">
         <v>4</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="69">
         <v>0.1</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="35" t="s">
-        <v>106</v>
+      <c r="H12" s="32" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="31" t="s">
+    <row r="13" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="32" t="s">
+      <c r="D13" s="58"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="34" t="s">
-        <v>107</v>
+      <c r="G13" s="58"/>
+      <c r="H13" s="32" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="69"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="31" t="s">
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="32" t="s">
+      <c r="D14" s="59"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="69"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="32" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:G4"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B8:B11"/>
@@ -10678,16 +10685,6 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="D12:D14"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="G12:G14"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10711,92 +10708,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="76"/>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="73"/>
+      <c r="F1" s="33" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="35">
         <v>44195</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="39">
+      <c r="E2" s="75"/>
+      <c r="F2" s="36">
         <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="66" x14ac:dyDescent="0.15">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="35">
         <v>44195</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="39">
+      <c r="E3" s="75"/>
+      <c r="F3" s="36">
         <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="66" x14ac:dyDescent="0.15">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="35">
         <v>44195</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="39">
+      <c r="E4" s="75"/>
+      <c r="F4" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.15">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="35">
         <v>44195</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="39">
+      <c r="E5" s="75"/>
+      <c r="F5" s="36">
         <v>0.1</v>
       </c>
     </row>
